--- a/InformationPackage.xlsx
+++ b/InformationPackage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raleigh/Documents/DU YR 3/INFO 3300/Week 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\INFO3300_Learn_By_Doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,20 +177,87 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -201,9 +268,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -212,14 +285,67 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G9" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="1">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,23 +617,23 @@
       <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -524,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -538,7 +664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -552,7 +678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -566,7 +692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -580,7 +706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -595,160 +721,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.95703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>